--- a/PINS_VREVERSE.xlsx
+++ b/PINS_VREVERSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredomartinezhernandez/Documents/GitHub/PROJECTS/EDS_project_Alarm_Part/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE859D0D-153D-674D-AB5B-8760E24C0E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BDE4B2-2D93-7B40-A9F8-22B9150573AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E0D229DC-7DD1-4648-886D-5DCC160D98C1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>pin Nº</t>
   </si>
@@ -117,6 +117,72 @@
   </si>
   <si>
     <t>0.986</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.680</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>0.711</t>
+  </si>
+  <si>
+    <t>0.710</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.720</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.739</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.690</t>
   </si>
 </sst>
 </file>
@@ -482,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F560A3D-8EB5-A34A-889A-14E54AFDF3D1}">
   <dimension ref="C1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,8 +575,8 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.2">
@@ -520,8 +586,8 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.2">
@@ -641,8 +707,8 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1">
-        <v>1383</v>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
@@ -652,8 +718,8 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.2">
@@ -663,8 +729,8 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
@@ -674,8 +740,8 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
@@ -685,8 +751,8 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
@@ -696,8 +762,8 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -707,8 +773,8 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
@@ -718,6 +784,9 @@
       <c r="D21" t="s">
         <v>9</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22">
@@ -726,6 +795,9 @@
       <c r="D22" t="s">
         <v>8</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23">
@@ -734,6 +806,9 @@
       <c r="D23" t="s">
         <v>7</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24">
@@ -742,6 +817,9 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25">
@@ -750,6 +828,9 @@
       <c r="D25" t="s">
         <v>5</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26">
@@ -758,6 +839,9 @@
       <c r="D26" t="s">
         <v>3</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27">
@@ -766,6 +850,9 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28">
@@ -774,6 +861,9 @@
       <c r="D28" t="s">
         <v>3</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29">
@@ -782,6 +872,9 @@
       <c r="D29" t="s">
         <v>4</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30">
@@ -790,6 +883,9 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31">
@@ -798,6 +894,9 @@
       <c r="D31" t="s">
         <v>4</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32">
@@ -806,144 +905,198 @@
       <c r="D32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F44" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F48" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>49</v>
       </c>
@@ -951,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>50</v>
       </c>
@@ -959,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>51</v>
       </c>
@@ -967,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>52</v>
       </c>
@@ -975,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>53</v>
       </c>
@@ -983,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>54</v>
       </c>
@@ -991,7 +1144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>55</v>
       </c>
@@ -999,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>56</v>
       </c>
@@ -1007,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>57</v>
       </c>
